--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -324,7 +324,6 @@
 Transaction Item: {TransactionItem}&lt;br&gt;
 Time Stamp: {CurrentTimeStamp}&lt;br&gt;
 Status: Business Rule Exception&lt;br&gt;
-Process Stage: {ExceptionSource}&lt;br&gt;
 Remark: {ExceptionMessage}&lt;br&gt;
 Suggested Action: {SuggestedAction}&lt;br&gt;&lt;br&gt;
 Processed by,&lt;br&gt;
@@ -1827,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
